--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_26_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_26_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34393.27075235108</v>
+        <v>6811949.108155825</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34393.27075235108</v>
+        <v>6811949.108155825</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13502.62948497587</v>
+        <v>810157.7690985523</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13502.62948497587</v>
+        <v>810157.7690985523</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1037308013.444023</v>
+        <v>43705764.59651202</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10438.21720940436</v>
+        <v>1179308.304750891</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18889.16650197997</v>
+        <v>2029387.806975393</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27339.95400313205</v>
+        <v>2879467.309199895</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>36157.27993070126</v>
+        <v>3690945.300276482</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>45017.87836243303</v>
+        <v>4513128.224228941</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>53666.70045898101</v>
+        <v>5373977.416154634</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>62229.83158175185</v>
+        <v>6224056.918379133</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>70792.9627045227</v>
+        <v>7074136.420603631</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>79498.97981297119</v>
+        <v>7891858.668492074</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>88250.61884477922</v>
+        <v>8718659.67912907</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>97002.25787658726</v>
+        <v>9545460.68976607</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>105753.8969083953</v>
+        <v>10372261.70040307</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>114505.5359402034</v>
+        <v>11199062.71104008</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>123257.1749720114</v>
+        <v>12025863.72167708</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>132008.8140038194</v>
+        <v>12852664.73231408</v>
       </c>
     </row>
   </sheetData>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
